--- a/teaching/traditional_assets/database/data/nigeria/nigeria_real_estate_general_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_real_estate_general_diversified.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.252</v>
+        <v>-0.375</v>
       </c>
       <c r="G2">
-        <v>-2.032786885245902</v>
+        <v>-2.138297872340425</v>
       </c>
       <c r="H2">
-        <v>-2.032786885245902</v>
+        <v>-2.138297872340425</v>
       </c>
       <c r="I2">
-        <v>-2.229508196721312</v>
+        <v>-2.148936170212766</v>
       </c>
       <c r="J2">
-        <v>-2.229508196721312</v>
+        <v>-2.148936170212766</v>
       </c>
       <c r="K2">
-        <v>-68.90000000000001</v>
+        <v>-12</v>
       </c>
       <c r="L2">
-        <v>-11.29508196721312</v>
+        <v>-6.382978723404256</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="V2">
-        <v>0.2952646239554318</v>
+        <v>0.06406250000000001</v>
       </c>
       <c r="W2">
-        <v>-0.8601747815230962</v>
+        <v>-1.213346814964611</v>
       </c>
       <c r="X2">
-        <v>0.1659826149031338</v>
+        <v>0.08565043905558375</v>
       </c>
       <c r="Y2">
-        <v>-1.02615739642623</v>
+        <v>-1.298997254020194</v>
       </c>
       <c r="Z2">
-        <v>0.04811484461271493</v>
+        <v>0.09606540623403168</v>
       </c>
       <c r="AA2">
-        <v>-0.1072724404480202</v>
+        <v>-0.2064384261624936</v>
       </c>
       <c r="AB2">
-        <v>0.09769767391647634</v>
+        <v>0.07627217525767803</v>
       </c>
       <c r="AC2">
-        <v>-0.2049701143644965</v>
+        <v>-0.2827106014201716</v>
       </c>
       <c r="AD2">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="AG2">
-        <v>9.68</v>
+        <v>12.44</v>
       </c>
       <c r="AH2">
-        <v>0.6217070600632245</v>
+        <v>0.2795497185741088</v>
       </c>
       <c r="AI2">
-        <v>0.5566037735849056</v>
+        <v>0.2838095238095238</v>
       </c>
       <c r="AJ2">
-        <v>0.5741399762752076</v>
+        <v>0.2446892210857592</v>
       </c>
       <c r="AK2">
-        <v>0.5073375262054508</v>
+        <v>0.2486011191047162</v>
       </c>
       <c r="AL2">
-        <v>9.640000000000001</v>
+        <v>4.46</v>
       </c>
       <c r="AM2">
-        <v>9.587</v>
+        <v>4.429</v>
       </c>
       <c r="AN2">
-        <v>-0.8676470588235294</v>
+        <v>-3.725</v>
       </c>
       <c r="AO2">
-        <v>-1.410788381742738</v>
+        <v>-0.9058295964125561</v>
       </c>
       <c r="AP2">
-        <v>-0.711764705882353</v>
+        <v>-3.11</v>
       </c>
       <c r="AQ2">
-        <v>-1.418587670804214</v>
+        <v>-0.9121697900203206</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.252</v>
+        <v>-0.375</v>
       </c>
       <c r="G3">
-        <v>-2.032786885245902</v>
+        <v>-2.138297872340425</v>
       </c>
       <c r="H3">
-        <v>-2.032786885245902</v>
+        <v>-2.138297872340425</v>
       </c>
       <c r="I3">
-        <v>-2.229508196721312</v>
+        <v>-2.148936170212766</v>
       </c>
       <c r="J3">
-        <v>-2.229508196721312</v>
+        <v>-2.148936170212766</v>
       </c>
       <c r="K3">
-        <v>-68.90000000000001</v>
+        <v>-12</v>
       </c>
       <c r="L3">
-        <v>-11.29508196721312</v>
+        <v>-6.382978723404256</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="V3">
-        <v>0.2952646239554318</v>
+        <v>0.06406250000000001</v>
       </c>
       <c r="W3">
-        <v>-0.8601747815230962</v>
+        <v>-1.213346814964611</v>
       </c>
       <c r="X3">
-        <v>0.1659826149031338</v>
+        <v>0.08565043905558375</v>
       </c>
       <c r="Y3">
-        <v>-1.02615739642623</v>
+        <v>-1.298997254020194</v>
       </c>
       <c r="Z3">
-        <v>0.04811484461271493</v>
+        <v>0.09606540623403168</v>
       </c>
       <c r="AA3">
-        <v>-0.1072724404480202</v>
+        <v>-0.2064384261624936</v>
       </c>
       <c r="AB3">
-        <v>0.09769767391647634</v>
+        <v>0.07627217525767803</v>
       </c>
       <c r="AC3">
-        <v>-0.2049701143644965</v>
+        <v>-0.2827106014201716</v>
       </c>
       <c r="AD3">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="AG3">
-        <v>9.68</v>
+        <v>12.44</v>
       </c>
       <c r="AH3">
-        <v>0.6217070600632245</v>
+        <v>0.2795497185741088</v>
       </c>
       <c r="AI3">
-        <v>0.5566037735849056</v>
+        <v>0.2838095238095238</v>
       </c>
       <c r="AJ3">
-        <v>0.5741399762752076</v>
+        <v>0.2446892210857592</v>
       </c>
       <c r="AK3">
-        <v>0.5073375262054508</v>
+        <v>0.2486011191047162</v>
       </c>
       <c r="AL3">
-        <v>9.640000000000001</v>
+        <v>4.46</v>
       </c>
       <c r="AM3">
-        <v>9.587</v>
+        <v>4.429</v>
       </c>
       <c r="AN3">
-        <v>-0.8676470588235294</v>
+        <v>-3.725</v>
       </c>
       <c r="AO3">
-        <v>-1.410788381742738</v>
+        <v>-0.9058295964125561</v>
       </c>
       <c r="AP3">
-        <v>-0.711764705882353</v>
+        <v>-3.11</v>
       </c>
       <c r="AQ3">
-        <v>-1.418587670804214</v>
+        <v>-0.9121697900203206</v>
       </c>
     </row>
   </sheetData>
